--- a/LR3/table_3_26.xlsx
+++ b/LR3/table_3_26.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,71 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$D$23:$D$37</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$22</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$B$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$B$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$B$23</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$B$25</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$B$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$B$26</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$K$3</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$K$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$K$2</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$K$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$K$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$K$19</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$K$18</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$K$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$K$14</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$K$11</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Занятия</t>
   </si>
@@ -95,13 +154,118 @@
   </si>
   <si>
     <t>Коммуникасьон (К), ОО</t>
+  </si>
+  <si>
+    <t>Самый умный студент</t>
+  </si>
+  <si>
+    <t>Параметры к концу расчётного периода</t>
+  </si>
+  <si>
+    <t>План на расчётный период</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Настроение</t>
+  </si>
+  <si>
+    <t>Интеллект</t>
+  </si>
+  <si>
+    <t>Бюджет</t>
+  </si>
+  <si>
+    <t>Коммуникасьон</t>
+  </si>
+  <si>
+    <t>Самый здоровый среди самых счатливых</t>
+  </si>
+  <si>
+    <t>Стартовое здоровье</t>
+  </si>
+  <si>
+    <t>Минимальное здоровье</t>
+  </si>
+  <si>
+    <t>Максимальное здоровье</t>
+  </si>
+  <si>
+    <t>Стартовое настроение</t>
+  </si>
+  <si>
+    <t>Минимальное настроение</t>
+  </si>
+  <si>
+    <t>Максимальное настроение</t>
+  </si>
+  <si>
+    <t>Стартовый коммуникасьон</t>
+  </si>
+  <si>
+    <t>Минимальный коммуникасьон</t>
+  </si>
+  <si>
+    <t>Максимальный коммуникасьон</t>
+  </si>
+  <si>
+    <t>Стартовый бюджет</t>
+  </si>
+  <si>
+    <t>Минимальный бюджет</t>
+  </si>
+  <si>
+    <t>Максимальный бюджет</t>
+  </si>
+  <si>
+    <t>Стартовый интеллект</t>
+  </si>
+  <si>
+    <t>Минимальный интеллект</t>
+  </si>
+  <si>
+    <t>Максимальный интеллект</t>
+  </si>
+  <si>
+    <t>Обязательный расход энергии в день</t>
+  </si>
+  <si>
+    <t>Минимальный расход энергии в день</t>
+  </si>
+  <si>
+    <t>Количество дней для расчёта</t>
+  </si>
+  <si>
+    <t>ЧАСЫ</t>
+  </si>
+  <si>
+    <t>КОММ</t>
+  </si>
+  <si>
+    <t>БАБОСИКИ</t>
+  </si>
+  <si>
+    <t>АЙКЬЮ</t>
+  </si>
+  <si>
+    <t>НАСТРОЕНИЕ</t>
+  </si>
+  <si>
+    <t>ХЕЛС</t>
+  </si>
+  <si>
+    <t>ККАЛ</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +273,191 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -130,10 +466,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,366 +826,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>140</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-3</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.5</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>400</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-100</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="7">
+        <f>SUMPRODUCT(D23:D27,D9:D13)</f>
+        <v>308</v>
+      </c>
+      <c r="N3">
+        <f>SUMPRODUCT(D2:D6,D29:D33)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>150</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4">
+        <f>SUMPRODUCT(D23:D27,E9:E13)</f>
+        <v>-32</v>
+      </c>
+      <c r="N4">
+        <f>SUMPRODUCT(E2:E6,D29:D33)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>500</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.5</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5">
+        <f>SUMPRODUCT(G2:G6,D29:D33)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="N5">
+        <f>SUMPRODUCT(E16:E18,D35:D37)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6">
+        <f>SUMPRODUCT(F2:F6,D29:D33)</f>
+        <v>1900</v>
+      </c>
+      <c r="N6">
+        <f>SUMPRODUCT(C9:C13,D23:D27)</f>
+        <v>11419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <f>SUMPRODUCT(F16:F18,D35:D37)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8">
+        <f>SUMPRODUCT(B2:B6,D29:D33)</f>
+        <v>23.5</v>
+      </c>
+      <c r="N8">
+        <f>SUMPRODUCT(B16:B18,D35:D37)</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <f>SUM(M8:N8)</f>
+        <v>26.5</v>
+      </c>
+      <c r="S8">
+        <f>INT(P8/12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>150</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>158</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <f>SUMPRODUCT(C2:C6,D29:D33)</f>
+        <v>5690</v>
+      </c>
+      <c r="N9">
+        <f>SUMPRODUCT(C16:C18,D35:D37)</f>
+        <v>314</v>
+      </c>
+      <c r="O9">
+        <f>SUMPRODUCT(C9:C13,D23:D27)</f>
+        <v>11419</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9">
+        <f>O9-N9-M9-K21*P8/24</f>
+        <v>3758.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>360</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>350</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>130</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>100</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>185</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>700</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>146</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>210</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>73</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>31</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>-2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <f>M3+N3+K1</f>
+        <v>421</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <f>K5+M4+N4</f>
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <f>K18+M5+N5</f>
+        <v>75.5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <f>K13+M6-N6</f>
+        <v>-4519</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <f>K9+M7 -S8</f>
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_3_26.xlsx
+++ b/LR3/table_3_26.xlsx
@@ -1,79 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07963D9D-4854-40E0-BEE2-4B55DFC193FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет о допустимости 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Отчет о допустимости 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$D$23:$D$37</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$22</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$B$26</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$22</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$B$23</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$B$23</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$B$25</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$B$25</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$B$26</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$24</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$K$3</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$K$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$K$2</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$K$7</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$K$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$K$19</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$K$18</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$K$15</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$K$14</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$K$11</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Лист1!$D$23:$D$37</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Лист1!$B$22:$B$23</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">Лист1!$D$23:$D$37</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">Лист1!$P$8</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">Лист1!$Q$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">Лист1!$Q$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Лист1!$B$22:$B$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Лист1!$B$25</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Лист1!$B$25</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Лист1!$B$26</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">Лист1!$B$26</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">Лист1!$D$23:$D$37</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">12</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Лист1!$B$24</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">720</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">140</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">80</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">1000000</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">-100</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">"целое"</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">10</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.99</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">140</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Занятия</t>
   </si>
@@ -259,13 +279,58 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о допустимости</t>
+  </si>
+  <si>
+    <t>Лист: [table_3_26.xlsx]Лист1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 08.12.2022 10:49:09</t>
+  </si>
+  <si>
+    <t>Ограничения, препятствующие существованию допустимого решения задачи</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$B$25</t>
+  </si>
+  <si>
+    <t>Бюджет Параметры к концу расчётного периода</t>
+  </si>
+  <si>
+    <t>$B$25&gt;=-100</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>Ограничения, не включая переменные границы, препятствующие существованию допустимого решения задачи</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +348,23 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -462,11 +544,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,6 +712,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -650,6 +764,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -825,11 +956,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E6104-A27F-4551-AD2C-D74BB440CF91}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-100.00001317905571</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB820A-A3A3-4AC0-8F3C-8125ECE3C687}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-100.00001317905571</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +1138,11 @@
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,12 +1248,12 @@
         <v>59</v>
       </c>
       <c r="M3" s="7">
-        <f>SUMPRODUCT(D23:D27,D9:D13)</f>
-        <v>308</v>
+        <f>INT(SUMPRODUCT(D23:D27,D9:D13))</f>
+        <v>-6</v>
       </c>
       <c r="N3">
-        <f>SUMPRODUCT(D2:D6,D29:D33)</f>
-        <v>63</v>
+        <f>INT(SUMPRODUCT(D2:D6,D29:D33))</f>
+        <v>-44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -989,12 +1288,12 @@
         <v>58</v>
       </c>
       <c r="M4">
-        <f>SUMPRODUCT(D23:D27,E9:E13)</f>
-        <v>-32</v>
+        <f>INT(SUMPRODUCT(D23:D27,E9:E13))</f>
+        <v>120</v>
       </c>
       <c r="N4">
-        <f>SUMPRODUCT(E2:E6,D29:D33)</f>
-        <v>46</v>
+        <f>INT(SUMPRODUCT(E2:E6,D29:D33))</f>
+        <v>-66</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1032,13 +1331,13 @@
       <c r="L5" t="s">
         <v>57</v>
       </c>
-      <c r="M5">
-        <f>SUMPRODUCT(G2:G6,D29:D33)</f>
-        <v>-3.5</v>
+      <c r="M5" t="e">
+        <f>SUMPRODUCT(G2:F7G6,D29:D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N5">
-        <f>SUMPRODUCT(E16:E18,D35:D37)</f>
-        <v>-1</v>
+        <f>INT(SUMPRODUCT(E16:E18,D35:D37))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1077,11 +1376,11 @@
       </c>
       <c r="M6">
         <f>SUMPRODUCT(F2:F6,D29:D33)</f>
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMPRODUCT(C9:C13,D23:D27)</f>
-        <v>11419</v>
+        <f>INT(SUMPRODUCT(C9:C13,D23:D27))</f>
+        <v>5104</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1096,7 +1395,7 @@
       </c>
       <c r="M7">
         <f>SUMPRODUCT(F16:F18,D35:D37)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,18 +1421,18 @@
       </c>
       <c r="M8">
         <f>SUMPRODUCT(B2:B6,D29:D33)</f>
-        <v>23.5</v>
+        <v>32.759414941767062</v>
       </c>
       <c r="N8">
         <f>SUMPRODUCT(B16:B18,D35:D37)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="P8">
         <f>SUM(M8:N8)</f>
-        <v>26.5</v>
+        <v>32.759414941767062</v>
       </c>
       <c r="S8">
         <f>INT(P8/12)</f>
@@ -1156,11 +1455,11 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1172,22 +1471,22 @@
       </c>
       <c r="M9">
         <f>SUMPRODUCT(C2:C6,D29:D33)</f>
-        <v>5690</v>
+        <v>3057.545394564926</v>
       </c>
       <c r="N9">
         <f>SUMPRODUCT(C16:C18,D35:D37)</f>
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f>SUMPRODUCT(C9:C13,D23:D27)</f>
-        <v>11419</v>
+        <v>5104.9088284253676</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>61</v>
       </c>
       <c r="Q9">
         <f>O9-N9-M9-K21*P8/24</f>
-        <v>3758.75</v>
+        <v>-9.9999999999681677E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1206,11 +1505,11 @@
       <c r="E10" s="1">
         <v>-2</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1234,11 +1533,11 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1262,11 +1561,11 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -1286,11 +1585,11 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1326,8 +1625,8 @@
       <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
         <v>47</v>
@@ -1355,10 +1654,10 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20"/>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
@@ -1381,10 +1680,10 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20"/>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22"/>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1411,10 +1710,10 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1431,18 +1730,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
@@ -1476,7 +1775,7 @@
       </c>
       <c r="B22" s="3">
         <f>M3+N3+K1</f>
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1503,13 +1802,13 @@
       </c>
       <c r="B23" s="3">
         <f>K5+M4+N4</f>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>1.8323547097219765E-5</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
@@ -1526,15 +1825,15 @@
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="e">
         <f>K18+M5+N5</f>
-        <v>75.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="3">
-        <v>30</v>
+        <v>0.19614807657035091</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>32</v>
@@ -1557,13 +1856,13 @@
       </c>
       <c r="B25" s="3">
         <f>K13+M6-N6</f>
-        <v>-4519</v>
+        <v>-104</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>1.5541072620051972</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>33</v>
@@ -1580,13 +1879,13 @@
       </c>
       <c r="B26" s="3">
         <f>K9+M7 -S8</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>25.067345753318616</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>34</v>
@@ -1604,7 +1903,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>1.3342446391437006</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1619,7 +1918,9 @@
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
@@ -1634,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>21.839609961178041</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1650,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1666,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1682,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1698,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1713,7 +2014,9 @@
       <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -1728,7 +2031,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1744,7 +2047,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1760,7 +2063,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
